--- a/xlsx/宪政_intext.xlsx
+++ b/xlsx/宪政_intext.xlsx
@@ -41,37 +41,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A</t>
   </si>
   <si>
-    <t>極權</t>
+    <t>极权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
+    <t>无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counter-economics</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E8%87%AA%E7%94%B1%E5%8E%9F%E5%88%99</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -155,25 +155,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96%E7%9A%84%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>方法論的個人主義</t>
+    <t>方法论的个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>互不侵犯原則</t>
+    <t>互不侵犯原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%89%80%E6%9C%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>自我所有權</t>
+    <t>自我所有权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E5%83%B9%E5%80%BC%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>主觀價值理論</t>
+    <t>主观价值理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E8%87%AA%E6%B2%BB</t>
@@ -221,55 +221,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府資本主義</t>
+    <t>无政府资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志保守主義</t>
+    <t>自由意志保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左派自由意志主義</t>
+    <t>左派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右派自由意志主義</t>
+    <t>右派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由市場自由意志主義</t>
+    <t>自由市场自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>喬治自由意志主義</t>
+    <t>乔治自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%89%B9%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A7%86%C2%B7%E5%96%AC%E5%A7%86%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>諾姆·喬姆斯基</t>
+    <t>诺姆·乔姆斯基</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joseph_D%C3%A9jacque</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E4%B9%94%E6%B2%BB</t>
@@ -311,55 +311,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%8C%B2%E5%88%A9%E7%89%B9</t>
   </si>
   <si>
-    <t>亨利·赫茲利特</t>
+    <t>亨利·赫兹利特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF-%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E9%9C%8D%E6%99%AE</t>
   </si>
   <si>
-    <t>漢斯-赫爾曼·霍普</t>
+    <t>汉斯-赫尔曼·霍普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%96%80%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·門格爾</t>
+    <t>卡尔·门格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E4%BF%9D%E7%BE%85</t>
   </si>
   <si>
-    <t>榮·保羅</t>
+    <t>荣·保罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E8%98%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>艾茵·蘭德</t>
+    <t>艾茵·兰德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9F%83%E6%9E%97%C2%B7%E7%BE%85%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>盧埃林·羅克維爾</t>
+    <t>卢埃林·罗克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>穆瑞·羅斯巴德</t>
+    <t>穆瑞·罗斯巴德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -371,43 +371,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%88%B4%E7%B6%AD%C2%B7%E6%A2%AD%E7%BE%85</t>
   </si>
   <si>
-    <t>亨利·戴維·梭羅</t>
+    <t>亨利·戴维·梭罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A4%AB%C2%B7%E6%89%98%E7%88%BE%E6%96%AF%E6%B3%B0</t>
   </si>
   <si>
-    <t>列夫·托爾斯泰</t>
+    <t>列夫·托尔斯泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府工團主義</t>
+    <t>无政府工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>公民社會主義</t>
+    <t>公民社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E9%BB%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>自由意志主義共和黨人</t>
+    <t>自由意志主义共和党人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Libertarianism</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F</t>
   </si>
   <si>
-    <t>約束</t>
+    <t>约束</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>代議制民主</t>
+    <t>代议制民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E8%A1%A1</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>資產階級革命</t>
+    <t>资产阶级革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>憲法法院</t>
+    <t>宪法法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
